--- a/DemoMavenId/src/test/resources/TestData.xlsx
+++ b/DemoMavenId/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabiu\git\repository\DemoMavenId\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693122CF-5E93-4E0C-B4E2-1F375D5CADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39856176-E0AA-4BCA-81EF-28DF05861EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>PhoneNumner</t>
-  </si>
-  <si>
     <t>Rabi</t>
   </si>
   <si>
@@ -55,13 +52,46 @@
   </si>
   <si>
     <t>rabiul1.uzzaman@gmail.com</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>DOB1</t>
+  </si>
+  <si>
+    <t>DOB2</t>
+  </si>
+  <si>
+    <t>Rabi2</t>
+  </si>
+  <si>
+    <t>Rabi3</t>
+  </si>
+  <si>
+    <t>Hasan2</t>
+  </si>
+  <si>
+    <t>Hasan3</t>
+  </si>
+  <si>
+    <t>rabiul2.uzzaman@gmail.com</t>
+  </si>
+  <si>
+    <t>rabiul3.uzzaman@gmail.com</t>
+  </si>
+  <si>
+    <t>DOB3</t>
+  </si>
+  <si>
+    <t>DOB4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +103,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,41 +443,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>9674965207</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>9674965208</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A139ABFA-BAD2-4E65-9629-7C10150CA32A}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{737E709F-03C9-4A8D-A78B-9F9779717F35}"/>
+    <hyperlink ref="C4:C5" r:id="rId3" display="rabiul1.uzzaman@gmail.com" xr:uid="{BC8A61DB-8B54-41C4-B077-CFBDE9EEDC30}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{1D39CD69-8247-4336-B333-053E80DAB2B3}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{A458F824-F0A8-496B-A789-935F17101750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
